--- a/Unity/Assets/Config/Excel/HeroConfig.xlsx
+++ b/Unity/Assets/Config/Excel/HeroConfig.xlsx
@@ -27,16 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -44,9 +35,15 @@
     <t>预制体名字</t>
   </si>
   <si>
+    <t>英雄名称</t>
+  </si>
+  <si>
     <t>PrefabName</t>
   </si>
   <si>
+    <t>HeroName</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -56,10 +53,22 @@
     <t>BasicMaleDefault</t>
   </si>
   <si>
+    <t>英雄1</t>
+  </si>
+  <si>
     <t>BasicFemaleDefault</t>
   </si>
   <si>
+    <t>英雄2</t>
+  </si>
+  <si>
     <t>AlienDefault</t>
+  </si>
+  <si>
+    <t>英雄3</t>
+  </si>
+  <si>
+    <t>英雄4</t>
   </si>
 </sst>
 </file>
@@ -1057,10 +1066,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:J9"/>
+  <dimension ref="C3:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1078,28 +1087,16 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:10">
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="3" ht="13.5" spans="3:10">
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1108,12 +1105,14 @@
     </row>
     <row r="4" ht="13.5" spans="3:10">
       <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -1122,12 +1121,14 @@
     </row>
     <row r="5" ht="13.5" spans="3:10">
       <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1139,9 +1140,11 @@
         <v>1001</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="4"/>
     </row>
@@ -1152,7 +1155,9 @@
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="4"/>
     </row>
@@ -1161,9 +1166,11 @@
         <v>1003</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="4"/>
     </row>
@@ -1172,9 +1179,11 @@
         <v>1004</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="4"/>
     </row>

--- a/Unity/Assets/Config/Excel/HeroConfig.xlsx
+++ b/Unity/Assets/Config/Excel/HeroConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -50,22 +50,25 @@
     <t>string</t>
   </si>
   <si>
+    <t>BearDefault</t>
+  </si>
+  <si>
+    <t>英雄1</t>
+  </si>
+  <si>
     <t>BasicMaleDefault</t>
   </si>
   <si>
-    <t>英雄1</t>
+    <t>英雄2</t>
   </si>
   <si>
     <t>BasicFemaleDefault</t>
   </si>
   <si>
-    <t>英雄2</t>
+    <t>英雄3</t>
   </si>
   <si>
     <t>AlienDefault</t>
-  </si>
-  <si>
-    <t>英雄3</t>
   </si>
   <si>
     <t>英雄4</t>
@@ -1069,7 +1072,7 @@
   <dimension ref="C3:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1077,7 +1080,7 @@
     <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.6272727272727" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.6363636363636" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.8181818181818" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.1272727272727" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.62727272727273" style="2" customWidth="1"/>
     <col min="7" max="7" width="28.7545454545455" style="2" customWidth="1"/>
@@ -1179,10 +1182,10 @@
         <v>1004</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="4"/>

--- a/Unity/Assets/Config/Excel/HeroConfig.xlsx
+++ b/Unity/Assets/Config/Excel/HeroConfig.xlsx
@@ -50,25 +50,25 @@
     <t>string</t>
   </si>
   <si>
-    <t>BearDefault</t>
+    <t>Hero1</t>
   </si>
   <si>
     <t>英雄1</t>
   </si>
   <si>
-    <t>BasicMaleDefault</t>
+    <t>Hero2</t>
   </si>
   <si>
     <t>英雄2</t>
   </si>
   <si>
-    <t>BasicFemaleDefault</t>
+    <t>Hero3</t>
   </si>
   <si>
     <t>英雄3</t>
   </si>
   <si>
-    <t>AlienDefault</t>
+    <t>Hero4</t>
   </si>
   <si>
     <t>英雄4</t>
@@ -1072,7 +1072,7 @@
   <dimension ref="C3:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D6" sqref="D6:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>

--- a/Unity/Assets/Config/Excel/HeroConfig.xlsx
+++ b/Unity/Assets/Config/Excel/HeroConfig.xlsx
@@ -1069,10 +1069,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J9"/>
+  <dimension ref="C3:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D9"/>
+      <selection activeCell="C6" sqref="C6:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1082,15 +1082,14 @@
     <col min="3" max="3" width="12.6272727272727" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.8181818181818" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.1272727272727" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.62727272727273" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.7545454545455" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.87272727272727" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.75454545454545" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="28.7545454545455" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.87272727272727" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.75454545454545" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" ht="13.5" spans="3:10">
+    <row r="3" ht="13.5" spans="3:9">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1104,9 +1103,8 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
     </row>
-    <row r="4" ht="13.5" spans="3:10">
+    <row r="4" ht="13.5" spans="3:9">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1120,9 +1118,8 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
     </row>
-    <row r="5" ht="13.5" spans="3:10">
+    <row r="5" ht="13.5" spans="3:9">
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1136,9 +1133,8 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:7">
+    <row r="6" s="1" customFormat="1" spans="3:6">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -1148,10 +1144,9 @@
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:7">
+    <row r="7" s="1" customFormat="1" spans="3:6">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -1161,10 +1156,9 @@
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:7">
+    <row r="8" s="1" customFormat="1" spans="3:6">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -1174,10 +1168,9 @@
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:7">
+    <row r="9" s="1" customFormat="1" spans="3:6">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
@@ -1187,8 +1180,7 @@
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/HeroConfig.xlsx
+++ b/Unity/Assets/Config/Excel/HeroConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="20850" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Id</t>
   </si>
@@ -35,15 +35,45 @@
     <t>预制体名字</t>
   </si>
   <si>
+    <t>受击动作</t>
+  </si>
+  <si>
     <t>英雄名称</t>
   </si>
   <si>
+    <t>生命值基础之</t>
+  </si>
+  <si>
+    <t>生命值成长系数</t>
+  </si>
+  <si>
+    <t>攻击力基础数值</t>
+  </si>
+  <si>
+    <t>攻击力成长系数</t>
+  </si>
+  <si>
     <t>PrefabName</t>
   </si>
   <si>
+    <t>BeAttackAnim</t>
+  </si>
+  <si>
     <t>HeroName</t>
   </si>
   <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>HpGrow</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>AttackGrow</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -72,6 +102,24 @@
   </si>
   <si>
     <t>英雄4</t>
+  </si>
+  <si>
+    <t>Mogu</t>
+  </si>
+  <si>
+    <t>蘑菇</t>
+  </si>
+  <si>
+    <t>Yazi</t>
+  </si>
+  <si>
+    <t>兔子</t>
+  </si>
+  <si>
+    <t>Tuzi</t>
+  </si>
+  <si>
+    <t>鸭子</t>
   </si>
 </sst>
 </file>
@@ -1069,10 +1117,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I9"/>
+  <dimension ref="C3:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1080,16 +1128,16 @@
     <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.6272727272727" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.8181818181818" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.1272727272727" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.7545454545455" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.87272727272727" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.75454545454545" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="4" max="5" width="25.8181818181818" style="2" customWidth="1"/>
+    <col min="6" max="7" width="15.1272727272727" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.72727272727273" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.0909090909091" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.6363636363636" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.75454545454545" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" ht="13.5" spans="3:9">
+    <row r="3" ht="13.5" spans="3:11">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1099,88 +1147,240 @@
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3"/>
     </row>
-    <row r="4" ht="13.5" spans="3:9">
+    <row r="4" ht="13.5" spans="3:11">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="3"/>
     </row>
-    <row r="5" ht="13.5" spans="3:9">
+    <row r="5" ht="13.5" spans="3:11">
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:6">
+    <row r="6" s="1" customFormat="1" spans="3:10">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1">
+        <v>864</v>
+      </c>
+      <c r="H6" s="4">
+        <v>40</v>
+      </c>
+      <c r="I6" s="1">
+        <v>127</v>
+      </c>
+      <c r="J6" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:6">
+    <row r="7" s="1" customFormat="1" spans="3:10">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1">
+        <v>864</v>
+      </c>
+      <c r="H7" s="4">
+        <v>41</v>
+      </c>
+      <c r="I7" s="1">
+        <v>128</v>
+      </c>
+      <c r="J7" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:6">
+    <row r="8" s="1" customFormat="1" spans="3:10">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1">
+        <v>864</v>
+      </c>
+      <c r="H8" s="4">
+        <v>42</v>
+      </c>
+      <c r="I8" s="1">
+        <v>129</v>
+      </c>
+      <c r="J8" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:6">
+    <row r="9" s="1" customFormat="1" spans="3:10">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1">
+        <v>864</v>
+      </c>
+      <c r="H9" s="4">
+        <v>43</v>
+      </c>
+      <c r="I9" s="1">
+        <v>130</v>
+      </c>
+      <c r="J9" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="C10" s="1">
+        <v>1005</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1">
+        <v>864</v>
+      </c>
+      <c r="H10" s="4">
+        <v>40</v>
+      </c>
+      <c r="I10" s="1">
+        <v>127</v>
+      </c>
+      <c r="J10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11" s="1">
+        <v>1006</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1">
+        <v>864</v>
+      </c>
+      <c r="H11" s="4">
+        <v>41</v>
+      </c>
+      <c r="I11" s="1">
+        <v>128</v>
+      </c>
+      <c r="J11" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="C12" s="1">
+        <v>1007</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1">
+        <v>864</v>
+      </c>
+      <c r="H12" s="4">
+        <v>42</v>
+      </c>
+      <c r="I12" s="1">
+        <v>129</v>
+      </c>
+      <c r="J12" s="1">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/HeroConfig.xlsx
+++ b/Unity/Assets/Config/Excel/HeroConfig.xlsx
@@ -110,13 +110,13 @@
     <t>蘑菇</t>
   </si>
   <si>
+    <t>Tuzi</t>
+  </si>
+  <si>
+    <t>兔子</t>
+  </si>
+  <si>
     <t>Yazi</t>
-  </si>
-  <si>
-    <t>兔子</t>
-  </si>
-  <si>
-    <t>Tuzi</t>
   </si>
   <si>
     <t>鸭子</t>
@@ -1120,7 +1120,7 @@
   <dimension ref="C3:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>

--- a/Unity/Assets/Config/Excel/HeroConfig.xlsx
+++ b/Unity/Assets/Config/Excel/HeroConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20850" windowHeight="13380"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1120,7 +1120,7 @@
   <dimension ref="C3:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G6" sqref="G6:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1229,7 +1229,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="1">
-        <v>864</v>
+        <v>2000</v>
       </c>
       <c r="H6" s="4">
         <v>40</v>
@@ -1252,7 +1252,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="1">
-        <v>864</v>
+        <v>2000</v>
       </c>
       <c r="H7" s="4">
         <v>41</v>
@@ -1275,7 +1275,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="1">
-        <v>864</v>
+        <v>2000</v>
       </c>
       <c r="H8" s="4">
         <v>42</v>
@@ -1298,7 +1298,7 @@
         <v>24</v>
       </c>
       <c r="G9" s="1">
-        <v>864</v>
+        <v>2000</v>
       </c>
       <c r="H9" s="4">
         <v>43</v>

--- a/Unity/Assets/Config/Excel/HeroConfig.xlsx
+++ b/Unity/Assets/Config/Excel/HeroConfig.xlsx
@@ -1120,7 +1120,7 @@
   <dimension ref="C3:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G9"/>
+      <selection activeCell="I10" sqref="I10:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1328,7 +1328,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1">
         <v>6</v>
@@ -1352,7 +1352,7 @@
         <v>41</v>
       </c>
       <c r="I11" s="1">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1">
         <v>7</v>
@@ -1376,7 +1376,7 @@
         <v>42</v>
       </c>
       <c r="I12" s="1">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1">
         <v>8</v>

--- a/Unity/Assets/Config/Excel/HeroConfig.xlsx
+++ b/Unity/Assets/Config/Excel/HeroConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -53,6 +53,9 @@
     <t>攻击力成长系数</t>
   </si>
   <si>
+    <t>移动速度</t>
+  </si>
+  <si>
     <t>PrefabName</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
   </si>
   <si>
     <t>AttackGrow</t>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
   </si>
   <si>
     <t>int</t>
@@ -1120,7 +1126,7 @@
   <dimension ref="C3:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:I12"/>
+      <selection activeCell="K6" sqref="K6:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1133,7 +1139,7 @@
     <col min="8" max="8" width="9.72727272727273" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.0909090909091" style="2" customWidth="1"/>
     <col min="10" max="10" width="23.6363636363636" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.75454545454545" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.8181818181818" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1162,71 +1168,77 @@
       <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" ht="13.5" spans="3:11">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" ht="13.5" spans="3:11">
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:10">
+    <row r="6" s="1" customFormat="1" spans="3:11">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1">
         <v>2000</v>
@@ -1240,16 +1252,19 @@
       <c r="J6" s="1">
         <v>6</v>
       </c>
+      <c r="K6" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:10">
+    <row r="7" s="1" customFormat="1" spans="3:11">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1">
         <v>2000</v>
@@ -1263,16 +1278,19 @@
       <c r="J7" s="1">
         <v>7</v>
       </c>
+      <c r="K7" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:10">
+    <row r="8" s="1" customFormat="1" spans="3:11">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1">
         <v>2000</v>
@@ -1286,16 +1304,19 @@
       <c r="J8" s="1">
         <v>8</v>
       </c>
+      <c r="K8" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:10">
+    <row r="9" s="1" customFormat="1" spans="3:11">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1">
         <v>2000</v>
@@ -1309,17 +1330,20 @@
       <c r="J9" s="1">
         <v>9</v>
       </c>
+      <c r="K9" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="3:10">
+    <row r="10" spans="3:11">
       <c r="C10" s="1">
         <v>1005</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G10" s="1">
         <v>864</v>
@@ -1333,17 +1357,20 @@
       <c r="J10" s="1">
         <v>6</v>
       </c>
+      <c r="K10" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="3:10">
+    <row r="11" spans="3:11">
       <c r="C11" s="1">
         <v>1006</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G11" s="1">
         <v>864</v>
@@ -1357,17 +1384,20 @@
       <c r="J11" s="1">
         <v>7</v>
       </c>
+      <c r="K11" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="3:10">
+    <row r="12" spans="3:11">
       <c r="C12" s="1">
         <v>1007</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1">
         <v>864</v>
@@ -1380,6 +1410,9 @@
       </c>
       <c r="J12" s="1">
         <v>8</v>
+      </c>
+      <c r="K12" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/HeroConfig.xlsx
+++ b/Unity/Assets/Config/Excel/HeroConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -56,6 +56,12 @@
     <t>移动速度</t>
   </si>
   <si>
+    <t>最大攻击距离</t>
+  </si>
+  <si>
+    <t>最大跟踪距离</t>
+  </si>
+  <si>
     <t>PrefabName</t>
   </si>
   <si>
@@ -80,10 +86,19 @@
     <t>MoveSpeed</t>
   </si>
   <si>
+    <t>MaxAttackDistance</t>
+  </si>
+  <si>
+    <t>MaxTrackDistance</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>Hero1</t>
@@ -1123,10 +1138,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K12"/>
+  <dimension ref="C3:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:K12"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1138,12 +1153,14 @@
     <col min="6" max="7" width="15.1272727272727" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.72727272727273" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.0909090909091" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.6363636363636" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.5454545454545" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.8181818181818" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="12" max="12" width="19.7272727272727" style="2" customWidth="1"/>
+    <col min="13" max="13" width="24.4545454545455" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" ht="13.5" spans="3:11">
+    <row r="3" ht="13.5" spans="3:13">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1171,74 +1188,92 @@
       <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" ht="13.5" spans="3:11">
+    <row r="4" ht="13.5" spans="3:13">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="3:11">
+    <row r="5" ht="13.5" spans="3:13">
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:11">
+    <row r="6" s="1" customFormat="1" spans="3:13">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1">
         <v>2000</v>
@@ -1255,16 +1290,22 @@
       <c r="K6" s="1">
         <v>6</v>
       </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:11">
+    <row r="7" s="1" customFormat="1" spans="3:13">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1">
         <v>2000</v>
@@ -1281,16 +1322,22 @@
       <c r="K7" s="1">
         <v>6</v>
       </c>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:11">
+    <row r="8" s="1" customFormat="1" spans="3:13">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1">
         <v>2000</v>
@@ -1307,16 +1354,22 @@
       <c r="K8" s="1">
         <v>6</v>
       </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:11">
+    <row r="9" s="1" customFormat="1" spans="3:13">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1">
         <v>2000</v>
@@ -1333,17 +1386,23 @@
       <c r="K9" s="1">
         <v>6</v>
       </c>
+      <c r="L9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="3:11">
+    <row r="10" spans="3:13">
       <c r="C10" s="1">
         <v>1005</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G10" s="1">
         <v>864</v>
@@ -1352,25 +1411,31 @@
         <v>40</v>
       </c>
       <c r="I10" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
         <v>6</v>
       </c>
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="11" spans="3:11">
+    <row r="11" spans="3:13">
       <c r="C11" s="1">
         <v>1006</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G11" s="1">
         <v>864</v>
@@ -1379,25 +1444,31 @@
         <v>41</v>
       </c>
       <c r="I11" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
         <v>6</v>
       </c>
+      <c r="L11" s="1">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="3:11">
+    <row r="12" spans="3:13">
       <c r="C12" s="1">
         <v>1007</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1">
         <v>864</v>
@@ -1406,13 +1477,19 @@
         <v>42</v>
       </c>
       <c r="I12" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1">
         <v>6</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
